--- a/Documentation/Test_Cases/7_Seg_Display_Test_Cases.xlsx
+++ b/Documentation/Test_Cases/7_Seg_Display_Test_Cases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\God\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40010373\git\time_travelers_verilog_stopwatch\Documentation\Test_Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8BE4E2B-DD0A-4FB4-8EFE-B4A27E825204}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA08A7A3-1137-425E-BCB5-63E11172FDC9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
   <si>
     <t>Requirement Tag</t>
   </si>
@@ -290,12 +290,33 @@
 o_segout_6[7:0] = "10000000"
 o_segout_6[7:0] = "10010000"</t>
   </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>c58cdf0e4f93df7f9d625a2773a3f145bfaa6ee0</t>
+  </si>
+  <si>
+    <t>c58cdf0e4f93df7f9d625a2773a3f145bfaa6ee1</t>
+  </si>
+  <si>
+    <t>c58cdf0e4f93df7f9d625a2773a3f145bfaa6ee2</t>
+  </si>
+  <si>
+    <t>c58cdf0e4f93df7f9d625a2773a3f145bfaa6ee3</t>
+  </si>
+  <si>
+    <t>c58cdf0e4f93df7f9d625a2773a3f145bfaa6ee4</t>
+  </si>
+  <si>
+    <t>c58cdf0e4f93df7f9d625a2773a3f145bfaa6ee5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,6 +337,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF444D56"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -338,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -347,6 +374,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -663,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,9 +703,9 @@
     <col min="4" max="4" width="34.140625" customWidth="1"/>
     <col min="5" max="5" width="23.7109375" customWidth="1"/>
     <col min="6" max="6" width="29.85546875" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" customWidth="1"/>
+    <col min="7" max="7" width="29.7109375" customWidth="1"/>
     <col min="8" max="8" width="16.140625" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="41.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -709,7 +737,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -728,8 +756,15 @@
       <c r="F2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="G2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="3" spans="1:9" ht="163.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -750,6 +785,15 @@
       <c r="F3" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="G3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -770,6 +814,15 @@
       <c r="F4" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="G4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -790,6 +843,15 @@
       <c r="F5" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="G5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="168" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -810,6 +872,15 @@
       <c r="F6" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="G6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -830,24 +901,34 @@
       <c r="F7" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="G7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" ht="164.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:9" ht="164.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H8:I8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -997,15 +1078,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{065C203B-187E-495A-97A5-35B3AD3DB734}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA12D9B4-0AFF-4A48-8503-C4B7A72BF3AD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1029,10 +1114,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA12D9B4-0AFF-4A48-8503-C4B7A72BF3AD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{065C203B-187E-495A-97A5-35B3AD3DB734}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>